--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/6/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/6/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06506506506506507</v>
+        <v>0.2194219421942194</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1245.245245245245</v>
+        <v>871.8571857185719</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04924924924924925</v>
+        <v>0.09612961296129613</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6036036036036035</v>
+        <v>0.415941594159416</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>586.5865865865867</v>
+        <v>1619.011901190119</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.973973973974</v>
+        <v>616.5616561656166</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>516.5165165165166</v>
+        <v>246.6786678667867</v>
       </c>
     </row>
   </sheetData>
